--- a/excel/Format_excel_mahasiswa_kp.xlsx
+++ b/excel/Format_excel_mahasiswa_kp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7764"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NIM</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Alamat Instansi</t>
+  </si>
+  <si>
+    <t>No Telepon</t>
   </si>
 </sst>
 </file>
@@ -380,23 +383,23 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="23.453125" customWidth="1"/>
-    <col min="7" max="7" width="54.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="54.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -418,10 +421,12 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
